--- a/excels/Bussiness_Week_Reports.xlsx
+++ b/excels/Bussiness_Week_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15315" windowHeight="5955" tabRatio="942" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15315" windowHeight="5955" tabRatio="942" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,11 @@
     <sheet name="Internships" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:G18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="89">
   <si>
     <t>TCID</t>
   </si>
@@ -70,9 +69,6 @@
   </si>
   <si>
     <t>Full Academic Year</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>TC01</t>
@@ -730,13 +726,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -744,13 +740,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -758,13 +754,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -772,13 +768,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -786,13 +782,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -800,13 +796,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -814,13 +810,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -828,13 +824,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -842,13 +838,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -856,13 +852,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -890,7 +886,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -937,10 +933,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -949,16 +945,16 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -966,54 +962,54 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -1024,28 +1020,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -1057,516 +1053,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -1618,10 +1104,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1630,16 +1116,16 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -1647,54 +1133,54 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -1705,28 +1191,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -1737,12 +1223,180 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1789,10 +1443,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1801,16 +1455,16 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -1818,54 +1472,54 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -1876,28 +1530,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -1908,12 +1562,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1960,10 +1614,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1972,16 +1626,16 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -1989,54 +1643,54 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -2047,28 +1701,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -2079,12 +1733,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2131,10 +1785,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2143,16 +1797,16 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -2160,54 +1814,54 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -2218,28 +1872,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -2250,12 +1904,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2302,10 +1956,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2314,16 +1968,16 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -2331,54 +1985,54 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -2389,28 +2043,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -2418,16 +2072,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2474,10 +2127,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2486,16 +2139,16 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -2503,54 +2156,54 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -2561,28 +2214,371 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
